--- a/jrb/y.xlsx
+++ b/jrb/y.xlsx
@@ -441,1627 +441,1627 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.379999999999995</v>
+        <v>89.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.179999999999993</v>
+        <v>89.32000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.379999999999995</v>
+        <v>89.32000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.379999999999995</v>
+        <v>89.02000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.279999999999987</v>
+        <v>88.32000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.409999999999997</v>
+        <v>89.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.200000000000017</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.300000000000011</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.100000000000009</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.400000000000006</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.300000000000011</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.300000000000011</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.500000000000014</v>
+        <v>87.69999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.400000000000006</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.700000000000003</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.700000000000017</v>
+        <v>86.69999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.100000000000009</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.509999999999991</v>
+        <v>86.49000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.109999999999999</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.209999999999994</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.509999999999991</v>
+        <v>86.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.010000000000005</v>
+        <v>87.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.609999999999985</v>
+        <v>87.99000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.409999999999997</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.409999999999997</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.510000000000005</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.409999999999997</v>
+        <v>87.29000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.109999999999999</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.409999999999997</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.209999999999994</v>
+        <v>87.99000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.709999999999994</v>
+        <v>87.39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.409999999999997</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.109999999999999</v>
+        <v>87.29000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9099999999999966</v>
+        <v>87.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.109999999999999</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.409999999999997</v>
+        <v>86.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.310000000000002</v>
+        <v>88.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.309999999999988</v>
+        <v>87.79000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.239999999999995</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.439999999999998</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.540000000000006</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.219999999999999</v>
+        <v>88.58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.539999999999992</v>
+        <v>88.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.400000000000006</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.200000000000003</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.200000000000003</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.299999999999997</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.200000000000003</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.100000000000009</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.179999999999993</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.400000000000006</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.200000000000003</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.200000000000003</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.200000000000003</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.400000000000006</v>
+        <v>88.19999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.100000000000009</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.25</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.75</v>
+        <v>87.65000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.179999999999993</v>
+        <v>88.02000000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.679999999999993</v>
+        <v>88.02000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.780000000000001</v>
+        <v>87.22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.579999999999984</v>
+        <v>87.52000000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.579999999999998</v>
+        <v>87.22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.079999999999998</v>
+        <v>87.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.280000000000001</v>
+        <v>87.42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.280000000000001</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.379999999999995</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.579999999999998</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.780000000000001</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.779999999999987</v>
+        <v>88.82000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.47999999999999</v>
+        <v>89.32000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.400000000000006</v>
+        <v>87.89999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.299999999999997</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.400000000000006</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.800000000000011</v>
+        <v>86.89999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.47999999999999</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.379999999999995</v>
+        <v>88.72</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.680000000000007</v>
+        <v>88.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.179999999999993</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9799999999999898</v>
+        <v>87.02000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.579999999999998</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.579999999999998</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.779999999999987</v>
+        <v>85.82000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.180000000000007</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.480000000000004</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9799999999999898</v>
+        <v>89.62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.179999999999993</v>
+        <v>88.82000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.179999999999993</v>
+        <v>89.32000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9799999999999898</v>
+        <v>89.52000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.579999999999984</v>
+        <v>88.52000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.079999999999998</v>
+        <v>89.32000000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.379999999999995</v>
+        <v>90.22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.300000000000011</v>
+        <v>90.19999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.300000000000011</v>
+        <v>90.19999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.100000000000009</v>
+        <v>90.19999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.200000000000003</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.200000000000003</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.200000000000003</v>
+        <v>89.89999999999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.300000000000011</v>
+        <v>89.69999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.780000000000001</v>
+        <v>89.92</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.179999999999993</v>
+        <v>90.42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.280000000000001</v>
+        <v>90.12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.079999999999998</v>
+        <v>90.12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.379999999999995</v>
+        <v>89.82000000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.280000000000001</v>
+        <v>89.72</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.679999999999993</v>
+        <v>89.52000000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.679999999999993</v>
+        <v>88.92</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.280000000000001</v>
+        <v>89.92</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.300000000000011</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.200000000000017</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.400000000000006</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.200000000000003</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.579999999999998</v>
+        <v>89.72</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.300000000000011</v>
+        <v>89.69999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.239999999999995</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.209999999999994</v>
+        <v>89.89</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.209999999999994</v>
+        <v>89.39</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1.109999999999999</v>
+        <v>89.69</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.100000000000009</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.599999999999994</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1.100000000000009</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1.200000000000003</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1.200000000000003</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.300000000000011</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.099999999999994</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.099999999999994</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.099999999999994</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.9000000000000057</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.400000000000006</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.600000000000009</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.509999999999991</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1.310000000000002</v>
+        <v>88.09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.310000000000002</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.810000000000002</v>
+        <v>87.39</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.509999999999991</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.509999999999991</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.709999999999994</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.8100000000000023</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.409999999999997</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.2000000000000028</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.510000000000005</v>
+        <v>87.19</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.509999999999991</v>
+        <v>87.09</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.209999999999994</v>
+        <v>87.49000000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.210000000000008</v>
+        <v>87.19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.400000000000006</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.800000000000011</v>
+        <v>86.39999999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.100000000000009</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.809999999999988</v>
+        <v>85.99000000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.320000000000007</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.820000000000007</v>
+        <v>85.67999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.420000000000002</v>
+        <v>87.17999999999999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.420000000000002</v>
+        <v>87.67999999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.319999999999993</v>
+        <v>88.48</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.420000000000002</v>
+        <v>88.98</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.120000000000005</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.220000000000013</v>
+        <v>88.17999999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.02000000000001</v>
+        <v>88.38</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.310000000000002</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.209999999999994</v>
+        <v>88.79000000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.140000000000001</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.009999999999991</v>
+        <v>87.79000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.009999999999991</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.510000000000005</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.6099999999999852</v>
+        <v>88.99000000000001</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.009999999999991</v>
+        <v>88.49000000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.109999999999999</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.980000000000004</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.9399999999999977</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.9200000000000017</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.719999999999999</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.210000000000008</v>
+        <v>88.19</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.040000000000006</v>
+        <v>88.86</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.139999999999986</v>
+        <v>88.96000000000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.040000000000006</v>
+        <v>89.16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.140000000000001</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.539999999999992</v>
+        <v>89.56</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.339999999999989</v>
+        <v>88.46000000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.239999999999995</v>
+        <v>88.76000000000001</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.439999999999998</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.040000000000006</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.040000000000006</v>
+        <v>88.86</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4399999999999977</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.139999999999986</v>
+        <v>88.96000000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.140000000000001</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.140000000000001</v>
+        <v>87.16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.339999999999989</v>
+        <v>85.96000000000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9399999999999977</v>
+        <v>86.56</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.340000000000003</v>
+        <v>86.16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.509999999999991</v>
+        <v>86.29000000000001</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.509999999999991</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7099999999999937</v>
+        <v>89.49000000000001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.710000000000008</v>
+        <v>89.69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.209999999999994</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.009999999999991</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.409999999999997</v>
+        <v>88.49000000000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.109999999999999</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.310000000000002</v>
+        <v>88.69</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.409999999999997</v>
+        <v>88.49000000000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.209999999999994</v>
+        <v>88.49000000000001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.310000000000002</v>
+        <v>88.39</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.409999999999997</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.409999999999997</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.309999999999988</v>
+        <v>88.29000000000001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.109999999999999</v>
+        <v>88.09</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.409999999999997</v>
+        <v>87.99000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.010000000000005</v>
+        <v>88.39</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.009999999999991</v>
+        <v>88.99000000000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.11999999999999</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.120000000000005</v>
+        <v>89.78</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.140000000000001</v>
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.140000000000001</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.219999999999999</v>
+        <v>89.78</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.219999999999999</v>
+        <v>89.58</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.319999999999993</v>
+        <v>89.48</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.219999999999999</v>
+        <v>89.48</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.120000000000005</v>
+        <v>89.58</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.9200000000000017</v>
+        <v>89.48</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.219999999999999</v>
+        <v>89.78</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.420000000000002</v>
+        <v>89.17999999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.320000000000007</v>
+        <v>89.17999999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.019999999999996</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.320000000000007</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.320000000000007</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.320000000000007</v>
+        <v>89.17999999999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.320000000000007</v>
+        <v>89.17999999999999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.320000000000007</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.319999999999993</v>
+        <v>88.98</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.109999999999999</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.340000000000003</v>
+        <v>89.16</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.300000000000011</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.200000000000003</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.100000000000009</v>
+        <v>88.89999999999999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.100000000000009</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.100000000000009</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.200000000000003</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.200000000000003</v>
+        <v>89.39999999999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.300000000000011</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7000000000000028</v>
+        <v>89.39999999999999</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.100000000000009</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.100000000000009</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.300000000000011</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1.100000000000009</v>
+        <v>89.59999999999999</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.299999999999997</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.200000000000017</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.300000000000011</v>
+        <v>89.19999999999999</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.200000000000003</v>
+        <v>89</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.099999999999994</v>
+        <v>89</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.310000000000002</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.310000000000002</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.200000000000003</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.200000000000003</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.279999999999987</v>
+        <v>89.02000000000001</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.219999999999999</v>
+        <v>89.28</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.209999999999994</v>
+        <v>88.99000000000001</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.219999999999999</v>
+        <v>89.08</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.209999999999994</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.310000000000002</v>
+        <v>88.59</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.239999999999995</v>
+        <v>89.06</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.239999999999995</v>
+        <v>89.06</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.439999999999998</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.7399999999999949</v>
+        <v>88.96000000000001</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.239999999999995</v>
+        <v>88.46000000000001</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.240000000000009</v>
+        <v>88.16</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.339999999999989</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.339999999999989</v>
+        <v>87.96000000000001</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.8399999999999892</v>
+        <v>88.96000000000001</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.340000000000003</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.340000000000003</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.239999999999995</v>
+        <v>88.46000000000001</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.310000000000002</v>
+        <v>88.09</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.310000000000002</v>
+        <v>88.69</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.100000000000009</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.280000000000001</v>
+        <v>88.72</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.049999999999997</v>
+        <v>88.45</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.079999999999998</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.150000000000006</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.140000000000001</v>
+        <v>88.76000000000001</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.139999999999986</v>
+        <v>88.46000000000001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.040000000000006</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1.120000000000005</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1.120000000000005</v>
+        <v>88.17999999999999</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1.299999999999997</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1.079999999999998</v>
+        <v>88.22</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1.179999999999993</v>
+        <v>87.52000000000001</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1.280000000000001</v>
+        <v>87.72</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1.149999999999991</v>
+        <v>87.85000000000001</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.249999999999986</v>
+        <v>87.85000000000001</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.6499999999999915</v>
+        <v>87.95</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.079999999999998</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.149999999999991</v>
+        <v>88.85000000000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1.25</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1.079999999999998</v>
+        <v>88.72</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.079999999999998</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.200000000000017</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.149999999999991</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1.249999999999986</v>
+        <v>89.05000000000001</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1.149999999999991</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1.25</v>
+        <v>89.15000000000001</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.649999999999991</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.049999999999997</v>
+        <v>88.95</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.179999999999993</v>
+        <v>89.52000000000001</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.049999999999997</v>
+        <v>89.75</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1.049999999999983</v>
+        <v>89.05000000000001</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>1.25</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.079999999999998</v>
+        <v>88.32000000000001</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1.279999999999987</v>
+        <v>88.82000000000001</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>1.239999999999995</v>
+        <v>88.56</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1.149999999999991</v>
+        <v>88.95</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>1.249999999999986</v>
+        <v>89.05000000000001</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>1.150000000000006</v>
+        <v>88.75</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.150000000000006</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.149999999999991</v>
+        <v>88.35000000000001</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>1.049999999999997</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>1.25</v>
+        <v>88.45</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.149999999999991</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1.25</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.149999999999991</v>
+        <v>88.05000000000001</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.25</v>
+        <v>87.95</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.349999999999994</v>
+        <v>88.05000000000001</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.280000000000001</v>
+        <v>88.12</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1.25</v>
+        <v>88.65000000000001</v>
       </c>
     </row>
   </sheetData>
